--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A77DAD-4AB7-42C3-B43D-45B1AEA47A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49130B-F3B0-4081-AA49-495305A1EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -914,7 +914,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -929,10 +929,10 @@
       </c>
       <c r="G6">
         <f>SUM(F6:F55)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -943,8 +943,11 @@
         <f>HYPERLINK("https://leetcode.com/problems/unique-morse-code-words/","Unique Morse Code Words")</f>
         <v>Unique Morse Code Words</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -954,8 +957,11 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -965,8 +971,11 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -976,8 +985,11 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -987,8 +999,11 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -998,8 +1013,11 @@
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1011,7 +1029,7 @@
         <v>Goat Latin</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1045,7 +1063,7 @@
         <v>Flipping An Image</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1056,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1067,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>Backspace String Compare</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2784,7 +2802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>Unique Morse Code Words</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -2807,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -2829,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -2840,7 +2858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>Goat Latin</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -2885,7 +2903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>Flipping An Image</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -2908,7 +2926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -2919,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -2931,7 +2949,7 @@
         <v>Backspace String Compare</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -2964,7 +2982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -2986,7 +3004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49130B-F3B0-4081-AA49-495305A1EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795FECC3-1D47-4466-A560-617F6C07C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>SUM(F6:F55)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1027,6 +1027,9 @@
       <c r="C13" s="6" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/goat-latin","Goat Latin")</f>
         <v>Goat Latin</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795FECC3-1D47-4466-A560-617F6C07C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D8F9-5808-40B5-9CA5-6B5624A7F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -928,8 +928,8 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>SUM(F6:F55)</f>
-        <v>8</v>
+        <f>COUNT(F6:F55)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1042,6 +1042,9 @@
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1052,6 +1055,9 @@
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D8F9-5808-40B5-9CA5-6B5624A7F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BB8B6C-8C64-4314-AF51-37FB1F9BFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,9 +1056,6 @@
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -1070,6 +1067,9 @@
       <c r="C16" s="6" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/flipping-an-image","Flipping An Image")</f>
         <v>Flipping An Image</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BB8B6C-8C64-4314-AF51-37FB1F9BFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFAAD22-AD2D-4582-8C32-7223CF4E5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F55)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1056,6 +1056,9 @@
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -1072,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1082,8 +1085,11 @@
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1093,8 +1099,11 @@
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1105,8 +1114,11 @@
         <f>HYPERLINK("https://leetcode.com/problems/backspace-string-compare","Backspace String Compare")</f>
         <v>Backspace String Compare</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1116,8 +1128,11 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1127,8 +1142,11 @@
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1139,7 +1157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1150,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>Peak Index in A Mountain Array</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>Transpose Matrix</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1229,7 +1247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>27</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFAAD22-AD2D-4582-8C32-7223CF4E5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66619099-0C4A-4D9D-8E7D-57812D2FD09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F55)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1156,6 +1156,9 @@
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1167,6 +1170,9 @@
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -1178,6 +1184,9 @@
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1189,6 +1198,9 @@
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1201,6 +1213,9 @@
         <f>HYPERLINK("https://leetcode.com/problems/peak-index-in-a-mountain-array","Peak Index in A Mountain Array")</f>
         <v>Peak Index in A Mountain Array</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1212,6 +1227,9 @@
       <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -1224,6 +1242,9 @@
         <f>HYPERLINK("https://leetcode.com/problems/transpose-matrix","Transpose Matrix")</f>
         <v>Transpose Matrix</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1234,6 +1255,9 @@
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66619099-0C4A-4D9D-8E7D-57812D2FD09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6191A9-4D6A-42C4-8EE2-A063FD8A9A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F55)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1270,6 +1270,9 @@
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -1281,6 +1284,9 @@
       <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -1292,8 +1298,11 @@
       <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -1303,8 +1312,11 @@
       <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -1315,8 +1327,11 @@
         <f>HYPERLINK("https://leetcode.com/problems/middle-of-the-linked-list","Middle of the Linked List")</f>
         <v>Middle of the Linked List</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -1326,8 +1341,11 @@
       <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -1337,8 +1355,11 @@
       <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -1348,8 +1369,11 @@
       <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -1359,8 +1383,11 @@
       <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -1371,8 +1398,11 @@
         <f>HYPERLINK("https://leetcode.com/problems/uncommon-words-from-two-sentences","Uncommon Words from Two Sentences")</f>
         <v>Uncommon Words from Two Sentences</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -1382,8 +1412,11 @@
       <c r="C40" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -1393,8 +1426,11 @@
       <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -1404,8 +1440,11 @@
       <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -1415,8 +1454,11 @@
       <c r="C43" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -1426,8 +1468,11 @@
       <c r="C44" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -1437,8 +1482,11 @@
       <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -1449,7 +1497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -1460,7 +1508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>43</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6191A9-4D6A-42C4-8EE2-A063FD8A9A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC1E69-D22D-40A3-848F-CDB48FF86B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -928,8 +928,8 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>COUNT(F6:F55)</f>
-        <v>40</v>
+        <f>COUNT(F6:F155)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1496,6 +1496,9 @@
       <c r="C46" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -1507,6 +1510,9 @@
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -1518,8 +1524,11 @@
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -1529,8 +1538,11 @@
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -1540,8 +1552,11 @@
       <c r="C50" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -1551,8 +1566,11 @@
       <c r="C51" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -1562,8 +1580,11 @@
       <c r="C52" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -1573,8 +1594,11 @@
       <c r="C53" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -1585,8 +1609,11 @@
         <f>HYPERLINK("https://leetcode.com/problems/monotonic-array","Monotonic Array")</f>
         <v>Monotonic Array</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -1596,8 +1623,11 @@
       <c r="C55" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -1607,8 +1637,11 @@
       <c r="C56" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -1618,8 +1651,11 @@
       <c r="C57" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -1629,8 +1665,11 @@
       <c r="C58" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -1641,7 +1680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -1652,7 +1691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -1663,7 +1702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -1674,7 +1713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -1685,7 +1724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>59</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC1E69-D22D-40A3-848F-CDB48FF86B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6882A7B6-6739-4D1D-9E91-C64ECCB28CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1679,6 +1679,9 @@
       <c r="C59" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
@@ -1689,6 +1692,9 @@
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6882A7B6-6739-4D1D-9E91-C64ECCB28CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFAF1F-64E3-4C7F-93DB-84E374A493EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1707,6 +1707,9 @@
       <c r="C61" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
@@ -1718,6 +1721,9 @@
       <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
@@ -1729,6 +1735,9 @@
       <c r="C63" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
@@ -1740,8 +1749,11 @@
       <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -1751,8 +1763,11 @@
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -1762,8 +1777,11 @@
       <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -1773,8 +1791,11 @@
       <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -1784,8 +1805,11 @@
       <c r="C68" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -1795,8 +1819,11 @@
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -1806,8 +1833,11 @@
       <c r="C70" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -1817,8 +1847,11 @@
       <c r="C71" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -1828,8 +1861,11 @@
       <c r="C72" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -1839,8 +1875,11 @@
       <c r="C73" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -1851,7 +1890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -1862,7 +1901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -1873,7 +1912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -1884,7 +1923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -1895,7 +1934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -1907,7 +1946,7 @@
         <v>Sort Array by Parity</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>75</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFAF1F-64E3-4C7F-93DB-84E374A493EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B37249-FBDC-4D04-9F53-93886B8B32EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1889,6 +1889,9 @@
       <c r="C74" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -1900,6 +1903,9 @@
       <c r="C75" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
@@ -1911,6 +1917,9 @@
       <c r="C76" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -1922,6 +1931,9 @@
       <c r="C77" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
@@ -1933,6 +1945,9 @@
       <c r="C78" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
@@ -1945,6 +1960,9 @@
         <f>HYPERLINK("https://leetcode.com/problems/sort-array-by-parity","Sort Array by Parity")</f>
         <v>Sort Array by Parity</v>
       </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
@@ -1956,8 +1974,11 @@
       <c r="C80" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -1967,8 +1988,11 @@
       <c r="C81" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -1978,8 +2002,11 @@
       <c r="C82" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -1989,8 +2016,11 @@
       <c r="C83" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -2000,8 +2030,11 @@
       <c r="C84" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -2011,8 +2044,11 @@
       <c r="C85" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -2023,7 +2059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -2034,7 +2070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -2045,7 +2081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>84</v>
       </c>
@@ -2056,7 +2092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>85</v>
       </c>
@@ -2067,7 +2103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>86</v>
       </c>
@@ -2078,7 +2114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>87</v>
       </c>
@@ -2089,7 +2125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>88</v>
       </c>
@@ -2100,7 +2136,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>89</v>
       </c>
@@ -2111,7 +2147,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>90</v>
       </c>
@@ -2122,7 +2158,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>91</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B37249-FBDC-4D04-9F53-93886B8B32EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A143DB-192A-4C94-A154-583D60E1D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2058,6 +2058,9 @@
       <c r="C86" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
@@ -2069,6 +2072,9 @@
       <c r="C87" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
@@ -2080,6 +2086,9 @@
       <c r="C88" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
@@ -2091,6 +2100,9 @@
       <c r="C89" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
@@ -2102,6 +2114,9 @@
       <c r="C90" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
@@ -2113,6 +2128,9 @@
       <c r="C91" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
@@ -2124,6 +2142,9 @@
       <c r="C92" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
@@ -2135,6 +2156,9 @@
       <c r="C93" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
@@ -2146,6 +2170,9 @@
       <c r="C94" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
@@ -2157,6 +2184,9 @@
       <c r="C95" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
@@ -2167,6 +2197,9 @@
       </c>
       <c r="C96" s="4" t="s">
         <v>87</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A143DB-192A-4C94-A154-583D60E1D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1592ADA2-769E-4911-BF9D-B1B090920D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>92</v>
       </c>
@@ -2212,8 +2212,11 @@
       <c r="C97" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>93</v>
       </c>
@@ -2223,8 +2226,11 @@
       <c r="C98" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>94</v>
       </c>
@@ -2234,8 +2240,11 @@
       <c r="C99" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>95</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>96</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>97</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>98</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>99</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>100</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>101</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>102</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>103</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>104</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>Reverse Only Letters</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>105</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>106</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>107</v>
       </c>

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1592ADA2-769E-4911-BF9D-B1B090920D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47D68A-BA31-4943-A0EE-3628FB1751D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2254,6 +2254,9 @@
       <c r="C100" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
@@ -2265,6 +2268,9 @@
       <c r="C101" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
@@ -2276,6 +2282,9 @@
       <c r="C102" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
@@ -2286,6 +2295,9 @@
       </c>
       <c r="C103" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/Algo exam.xlsx
+++ b/Algo exam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Workspace\PythonPrj\100BaiCodeThieuNhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47D68A-BA31-4943-A0EE-3628FB1751D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E261E1-424E-4C94-9673-BEA0900C1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G6">
         <f>COUNT(F6:F155)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2310,6 +2310,9 @@
       <c r="C104" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
@@ -2320,6 +2323,9 @@
       </c>
       <c r="C105" s="4" t="s">
         <v>96</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
